--- a/AQUARELA-brinde.xlsx
+++ b/AQUARELA-brinde.xlsx
@@ -55,7 +55,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>0001-00_AQUARELA_COLEGIO_B2B</t>
+    <t>0100-10_AQUARELA</t>
   </si>
   <si>
     <t>AQUARELA2024AZINF5AL1B</t>
